--- a/projetos excel/Exercicios funções.xlsx
+++ b/projetos excel/Exercicios funções.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>Matricula</t>
   </si>
@@ -338,10 +338,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -520,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -533,18 +534,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,24 +565,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,11 +775,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="126348608"/>
-        <c:axId val="126351872"/>
+        <c:axId val="-480236528"/>
+        <c:axId val="-480238160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126348608"/>
+        <c:axId val="-480236528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +821,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126351872"/>
+        <c:crossAx val="-480238160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -827,7 +829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126351872"/>
+        <c:axId val="-480238160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -878,7 +880,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126348608"/>
+        <c:crossAx val="-480236528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,11 +1183,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="160672560"/>
-        <c:axId val="160669840"/>
+        <c:axId val="-480233808"/>
+        <c:axId val="-682536224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160672560"/>
+        <c:axId val="-480233808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1229,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160669840"/>
+        <c:crossAx val="-682536224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1235,7 +1237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160669840"/>
+        <c:axId val="-682536224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1286,7 +1288,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160672560"/>
+        <c:crossAx val="-480233808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1583,11 +1585,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="152769616"/>
-        <c:axId val="152773424"/>
+        <c:axId val="-682534592"/>
+        <c:axId val="-440322176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152769616"/>
+        <c:axId val="-682534592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1631,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152773424"/>
+        <c:crossAx val="-440322176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1637,7 +1639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152773424"/>
+        <c:axId val="-440322176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -1688,7 +1690,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152769616"/>
+        <c:crossAx val="-682534592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1805,11 +1807,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Plan2!$E$11</c:f>
+              <c:f>Plan2!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Produto A</c:v>
+                  <c:v>Vendas totais por vendedor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1855,7 +1857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Plan2!$A$22:$A$27</c:f>
+              <c:f>Plan2!$A$12:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1881,27 +1883,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plan2!$B$22:$B$27</c:f>
+              <c:f>Plan2!$H$22:$H$27</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2092.8000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1815.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2264.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1726.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2265.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>2237.3000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,11 +1919,11 @@
         </c:dLbls>
         <c:gapWidth val="115"/>
         <c:overlap val="-20"/>
-        <c:axId val="153150272"/>
-        <c:axId val="153148640"/>
+        <c:axId val="-440332512"/>
+        <c:axId val="-440327616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153150272"/>
+        <c:axId val="-440332512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1965,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153148640"/>
+        <c:crossAx val="-440327616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1971,10 +1973,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153148640"/>
+        <c:axId val="-440327616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
+          <c:max val="50000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1992,7 +1994,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2022,7 +2024,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153150272"/>
+        <c:crossAx val="-440332512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4705,10 +4707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64:L64"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4722,7 +4724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15">
-      <c r="A1" s="6">
+      <c r="A1" s="25">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4734,19 +4736,19 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="19">
+      <c r="A2" s="25"/>
+      <c r="B2" s="7">
         <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -4755,20 +4757,20 @@
       <c r="D2" s="5">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" s="27" t="str">
         <f>IF(VLOOKUP(C2,C2:D4,2,FALSE) &gt;=7,"Aprovado","Reprovado")</f>
         <v>Aprovado</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="19">
+      <c r="A3" s="25"/>
+      <c r="B3" s="7">
         <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -4777,17 +4779,17 @@
       <c r="D3" s="4">
         <v>6.5</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4" s="19">
+      <c r="A4" s="25"/>
+      <c r="B4" s="7">
         <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -4796,16 +4798,16 @@
       <c r="D4" s="4">
         <v>7.2</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="6">
+      <c r="A8" s="25">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -4817,18 +4819,18 @@
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -4838,19 +4840,19 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="27" t="str">
         <f>CONCATENATE(VLOOKUP("02",B9:D11,2,FALSE)," - ",VLOOKUP("02",B9:D11,3,FALSE))</f>
         <v>Maria - Belo Horizonte</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
@@ -4860,16 +4862,16 @@
       <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
@@ -4879,19 +4881,19 @@
       <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="6">
+      <c r="A15" s="25">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -4900,69 +4902,69 @@
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <v>89.9</v>
       </c>
-      <c r="F16" s="8">
-        <f>VLOOKUP(B17,B16:C18,2,FALSE)</f>
+      <c r="F16" s="27">
+        <f>VLOOKUP("Mouse",B16:C18,2,FALSE)</f>
         <v>45</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <v>45</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>789</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="22" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="25">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4971,69 +4973,90 @@
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="6"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="4">
         <v>2500</v>
       </c>
-      <c r="F23" s="8" t="str">
-        <f>IF(AVERAGE(C23:C25) &gt;C24, "Acima da média", "Abaixo da média")</f>
-        <v>Abaixo da média</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="F23" s="27" t="str">
+        <f>IF(C24 &gt; AVERAGE(C23:C25), "Acima da média", "Abaixo da média")</f>
+        <v>Acima da média</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="4">
         <v>3200</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="4">
         <v>2800</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="F26" s="19" t="str">
+        <f>IF(VLOOKUP("Renata",B23:C25,2,FALSE) &gt; AVERAGE(C23:C25), "Acima da média", "Abaixo da média")</f>
+        <v>Acima da média</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
     </row>
     <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="6">
+      <c r="A29" s="25">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5042,21 +5065,21 @@
       <c r="C29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="4" t="s">
         <v>9</v>
       </c>
@@ -5066,19 +5089,19 @@
       <c r="D30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="8" t="str">
-        <f>VLOOKUP(B30,B30:C32,2,FALSE)</f>
+      <c r="F30" s="27" t="str">
+        <f>VLOOKUP("01",B30:D32,2,FALSE)</f>
         <v>Amanda</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="4" t="s">
         <v>10</v>
       </c>
@@ -5088,16 +5111,16 @@
       <c r="D31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="4" t="s">
         <v>11</v>
       </c>
@@ -5107,16 +5130,16 @@
       <c r="D32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="6">
+      <c r="A36" s="25">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5125,89 +5148,89 @@
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="6"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="10" t="str">
+      <c r="F37" s="19" t="str">
         <f>INDEX(C37:C39,MATCH(B39,B37:B39,0))</f>
         <v>Webcam</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="12"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="6"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="6"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="8" t="str">
+      <c r="F39" s="27" t="str">
         <f>VLOOKUP(B39,B37:C39,2,FALSE)</f>
         <v>Webcam</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="E40" s="18"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
     </row>
     <row r="43" spans="1:12" ht="15">
-      <c r="A43" s="6">
+      <c r="A43" s="25">
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5216,69 +5239,69 @@
       <c r="C43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="8" t="str">
-        <f>CONCATENATE(VLOOKUP(B46,B44:C46,1,FALSE), "-",VLOOKUP(C46,C44:C46,1,FALSE))</f>
+      <c r="F44" s="27" t="str">
+        <f>CONCATENATE(VLOOKUP("C3",B44:C46,1,FALSE), "-",VLOOKUP("C3",B44:C46,2,FALSE))</f>
         <v>C3-Armário</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="6"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="6"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="15">
-      <c r="A50" s="6">
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+    </row>
+    <row r="50" spans="1:12" ht="15">
+      <c r="A50" s="25">
         <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -5287,69 +5310,69 @@
       <c r="C50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="6"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="25"/>
       <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C51" s="4">
         <v>2800</v>
       </c>
-      <c r="F51" s="8" t="str">
-        <f>IF(VLOOKUP(B53,B51:C53,2,FALSE)&lt;3000,"Sim","Não")</f>
+      <c r="F51" s="27" t="str">
+        <f>IF(VLOOKUP("Carlos",B51:C53,2,FALSE)&lt;3000,"Sim","Não")</f>
         <v>Sim</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="6"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="25"/>
       <c r="B52" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="4">
         <v>3100</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="6"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="25"/>
       <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="4">
         <v>2900</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="15">
-      <c r="A57" s="6">
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+    </row>
+    <row r="57" spans="1:12" ht="15">
+      <c r="A57" s="25">
         <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -5358,21 +5381,21 @@
       <c r="C57" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="6"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="25"/>
       <c r="B58" s="4">
         <v>10</v>
       </c>
@@ -5382,22 +5405,19 @@
       <c r="D58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F58" s="27" t="str">
         <f>CONCATENATE(VLOOKUP(11,B58:D60,2,FALSE),"-",VLOOKUP(11,B58:D60,3,FALSE))</f>
         <v>Bruno-Assistente</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="6"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="25"/>
       <c r="B59" s="4">
         <v>11</v>
       </c>
@@ -5407,16 +5427,16 @@
       <c r="D59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="6"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="25"/>
       <c r="B60" s="4">
         <v>12</v>
       </c>
@@ -5426,16 +5446,16 @@
       <c r="D60" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="64" spans="1:13" ht="15">
-      <c r="A64" s="6">
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+    </row>
+    <row r="64" spans="1:12" ht="15">
+      <c r="A64" s="25">
         <v>10</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -5444,89 +5464,89 @@
       <c r="C64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="6"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="4">
         <v>120</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F65" s="10">
-        <f>INDEX(C65:C67,MATCH(B65,B65:B67,0))</f>
+      <c r="F65" s="19">
+        <f>INDEX(C65:C67,MATCH("Caneta",B65:B67,0))</f>
         <v>120</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="12"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="6"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="4">
         <v>300</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="15"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="6"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="4">
         <v>85</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="27">
         <f>VLOOKUP(B65,B65:C67,2,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="E68" s="18"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="71" spans="1:12" ht="15">
-      <c r="A71" s="6">
+      <c r="A71" s="25">
         <v>11</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -5535,89 +5555,89 @@
       <c r="C71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="6"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C72" s="4">
         <v>45</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="19">
         <f>INDEX(C72:C74,MATCH(B74,B72:B74,0))</f>
         <v>60</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="12"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="21"/>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="6"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="4">
         <v>30</v>
       </c>
-      <c r="E73" s="17"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="15"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="6"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C74" s="4">
         <v>60</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="27">
         <f>VLOOKUP(B74,B72:C74,2,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="E75" s="18"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="78" spans="1:12" ht="15">
-      <c r="A78" s="6">
+      <c r="A78" s="25">
         <v>12</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -5626,71 +5646,69 @@
       <c r="C78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="6"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C79" s="4">
         <v>8.5</v>
       </c>
-      <c r="F79" s="8" t="str">
-        <f>IF(C80 &gt;=8, "Parabéns, Tati", "Estude Mais Tati")</f>
+      <c r="F79" s="27" t="str">
+        <f>IF(VLOOKUP("Tati",B79:C81,2,FALSE) &gt;=8,"Parabéns, Tati","Estude mais, Tati")</f>
         <v>Parabéns, Tati</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="27"/>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="6"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C80" s="4">
-        <v>8</v>
-      </c>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="6"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C81" s="4">
         <v>9</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:L75"/>
+  <mergeCells count="46">
     <mergeCell ref="F79:L81"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="E39:E40"/>
@@ -5705,6 +5723,7 @@
     <mergeCell ref="F58:L60"/>
     <mergeCell ref="F71:L71"/>
     <mergeCell ref="F78:L78"/>
+    <mergeCell ref="A71:A74"/>
     <mergeCell ref="F67:L68"/>
     <mergeCell ref="F30:L32"/>
     <mergeCell ref="F43:L43"/>
@@ -5713,6 +5732,9 @@
     <mergeCell ref="F51:L53"/>
     <mergeCell ref="F64:L64"/>
     <mergeCell ref="F36:L36"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:L75"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="F2:L4"/>
@@ -5728,12 +5750,11 @@
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A64:A67"/>
-    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="F26:L27"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A29:A32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5743,10 +5764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H27"/>
+  <dimension ref="A4:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5761,99 +5782,94 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="27" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="28"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="28"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="8">
         <v>1150</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="9">
         <v>0.05</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10" t="s">
         <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -5862,7 +5878,7 @@
       <c r="G11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
@@ -5871,20 +5887,20 @@
       <c r="B12" s="4">
         <v>14</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="8">
         <v>889</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="8">
         <v>1650</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="8">
         <v>1350</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
@@ -5893,17 +5909,17 @@
       <c r="B13" s="4">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="17">
         <f>SUM(PRODUCT(B22:B27,E12),PRODUCT(C22:C27,F12),PRODUCT(D22:D27,G12))</f>
         <v>36067536</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
@@ -5912,12 +5928,12 @@
       <c r="B14" s="4">
         <v>17</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
@@ -5926,12 +5942,12 @@
       <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
@@ -5940,12 +5956,12 @@
       <c r="B16" s="4">
         <v>16</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="28"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
@@ -5954,55 +5970,55 @@
       <c r="B17" s="4">
         <v>20</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="28"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="28"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="28"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="14" t="s">
         <v>93</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -6011,7 +6027,7 @@
       <c r="G21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="14" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6040,7 +6056,7 @@
         <f>PRODUCT($G$12,D22,$B$8)</f>
         <v>270</v>
       </c>
-      <c r="H22" s="20">
+      <c r="H22" s="8">
         <f>SUM(E22,F22,G22,$B$7)</f>
         <v>2092.8000000000002</v>
       </c>
@@ -6070,7 +6086,7 @@
         <f t="shared" ref="G23:G27" si="2">PRODUCT($G$12,D23,$B$8)</f>
         <v>202.5</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="8">
         <f t="shared" ref="H23:H27" si="3">SUM(E23,F23,G23,$B$7)</f>
         <v>1815.85</v>
       </c>
@@ -6100,7 +6116,7 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="8">
         <f t="shared" si="3"/>
         <v>2264.1999999999998</v>
       </c>
@@ -6130,7 +6146,7 @@
         <f t="shared" si="2"/>
         <v>202.5</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="8">
         <f t="shared" si="3"/>
         <v>1726.95</v>
       </c>
@@ -6160,7 +6176,7 @@
         <f t="shared" si="2"/>
         <v>405</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="8">
         <f t="shared" si="3"/>
         <v>2265.85</v>
       </c>
@@ -6190,7 +6206,7 @@
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="8">
         <f t="shared" si="3"/>
         <v>2237.3000000000002</v>
       </c>
